--- a/Interlab_Comparison/scripts/Magallanes_preprocessing.xlsx
+++ b/Interlab_Comparison/scripts/Magallanes_preprocessing.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Interlab_Comparison/scripts/Magallanes_preprocessing.xlsx
+++ b/Interlab_Comparison/scripts/Magallanes_preprocessing.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+  <si>
+    <t>Site_x</t>
+  </si>
+  <si>
+    <t>FM_x</t>
+  </si>
+  <si>
+    <t>FM_err_x</t>
+  </si>
+  <si>
+    <t>Decimal_date</t>
+  </si>
+  <si>
+    <t>D14C_x</t>
+  </si>
+  <si>
+    <t>D14C_err_x</t>
+  </si>
+  <si>
+    <t>FM_y</t>
+  </si>
+  <si>
+    <t>FM_err_y</t>
+  </si>
+  <si>
+    <t>D14C_y</t>
+  </si>
+  <si>
+    <t>D14C_err_y</t>
+  </si>
+  <si>
+    <t>Site_y</t>
+  </si>
+  <si>
+    <t>RRL</t>
+  </si>
+  <si>
+    <t>Magallanes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +93,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,497 +409,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Site_x</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FM_x</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>FM_err_x</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Decimal_date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>D14C_x</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>D14C_err_x</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>FM_y</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>FM_err_y</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>D14C_y</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>D14C_err_y</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Site_y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
         <v>1.213066122</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.002039546</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1985</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>207.94</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2.03</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>1.213027342627884</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.002621288257892488</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>207.9026044167389</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>2.621288257892488</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
         <v>1.158695256</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.001910439</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1990</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>153.1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1.9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1.152030609628887</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.002658695035131468</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>146.4699562318974</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>2.658695035131468</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
         <v>1.115626958</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.001924771</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1996</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>109.44</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.91</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1.11342242888666</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.002218839638982156</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>107.2442262389979</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>2.218839638982156</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>1.095070216</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.00198465</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>88.47</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.97</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>1.092790168706119</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.002507956584256657</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>86.20076417422263</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>2.507956584256657</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>1.095995634</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.001820078</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2000</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>89.39</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1.81</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>1.092790168706119</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.002507956584256657</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>86.20076417422263</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>2.507956584256657</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
         <v>1.05761681</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.001824058</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2008</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>50.22</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1.81</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1.058777861640265</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.001737785863126135</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>51.37563587285477</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>1.737785863126135</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
         <v>1.05853183</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.001824822</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2008</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>51.13</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1.81</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1.058777861640265</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.001737785863126135</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>51.37563587285477</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>1.737785863126135</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
         <v>1.027826691</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.001907597</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>2015</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>19.78</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1.89</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>1.032065229919913</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.001999473769647439</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>23.98234592652337</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>1.999473769647439</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
         <v>1.030717321</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.00163753</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>2015</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>22.64</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.62</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>1.032065229919913</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.001999473769647439</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>23.98234592652337</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>1.999473769647439</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>1.029043251</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.001626428</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>2015</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>20.98</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1.61</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1.032065229919913</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.001999473769647439</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>23.98234592652337</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>1.999473769647439</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
+      <c r="L11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>